--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_8_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>337634.7373039545</v>
+        <v>335428.6438975154</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7094780.682604727</v>
+        <v>7094780.682604725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>310.2492528716136</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0301000117425</v>
+        <v>394.2526755562841</v>
       </c>
       <c r="H2" t="n">
-        <v>326.4414032841481</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161.4125322208642</v>
+        <v>161.4125322208644</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.92680236866676</v>
+        <v>69.92680236866708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.0198424776875</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.5248788930305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2438419075651</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46.36558293807983</v>
       </c>
       <c r="C3" t="n">
-        <v>46.36558293808613</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>105.6591799828218</v>
       </c>
       <c r="I3" t="n">
-        <v>65.95263903154847</v>
+        <v>65.95263903154857</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.880996380155</v>
+        <v>57.88099638015518</v>
       </c>
       <c r="S3" t="n">
         <v>159.0353604252219</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.28311657924</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>151.625388236511</v>
       </c>
       <c r="S4" t="n">
-        <v>214.0680412192119</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>137.177496996156</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>107.2147086067147</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>298.0813419870154</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>159.9242596299971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +990,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I6" t="n">
         <v>61.42221998250818</v>
@@ -1051,31 +1051,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>152.4197201974562</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>4.977754783587573</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>319.6590153327747</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>132.6301997610084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>139.8939792152981</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722604</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881779</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>68.74868616823385</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17.03390406092929</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,13 +1585,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>114.9837094249513</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>108.3106828261004</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>103.8623669168741</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.3282681603505</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>66.41220336022549</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.29536796497278</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>144.3785837344373</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>6.380068175847479</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249706</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.38006817584793</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2846,7 +2846,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>50.41247594072308</v>
       </c>
       <c r="G31" t="n">
-        <v>120.635366662023</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>40.64497115397486</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>9.960678120153583</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C35" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D35" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E35" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F35" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G35" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H35" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I35" t="n">
-        <v>6.081513486880041</v>
+        <v>6.081513486880247</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213012</v>
       </c>
       <c r="T35" t="n">
-        <v>168.4225538535742</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U35" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V35" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W35" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X35" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y35" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C37" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>11.229890712304</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G37" t="n">
-        <v>130.5303919729823</v>
+        <v>84.25847270876021</v>
       </c>
       <c r="H37" t="n">
-        <v>109.2595986282748</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>53.43673638400139</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.2736090453959</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T37" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U37" t="n">
-        <v>250.7164219195669</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V37" t="n">
-        <v>216.642227037782</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W37" t="n">
-        <v>251.027582050545</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X37" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y37" t="n">
-        <v>183.0892370660488</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>347.2384253774346</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C38" t="n">
-        <v>329.7774754849616</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D38" t="n">
-        <v>319.187625334637</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E38" t="n">
-        <v>346.4349537862158</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F38" t="n">
-        <v>371.3806294556666</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G38" t="n">
-        <v>375.4263093674075</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H38" t="n">
-        <v>259.1123481012745</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I38" t="n">
-        <v>6.081513486880027</v>
+        <v>6.081513486880226</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>73.69234550212992</v>
+        <v>73.69234550213011</v>
       </c>
       <c r="T38" t="n">
-        <v>168.4225538535742</v>
+        <v>168.422553853575</v>
       </c>
       <c r="U38" t="n">
-        <v>215.499755672856</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V38" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W38" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X38" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y38" t="n">
-        <v>350.7425223700076</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>144.3365638958913</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C40" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D40" t="n">
-        <v>11.22989071230419</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F40" t="n">
-        <v>109.9256317368853</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G40" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H40" t="n">
-        <v>109.2595986282748</v>
+        <v>52.21610916187507</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>60.85700412379237</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>53.43673638400139</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S40" t="n">
-        <v>154.2736090453959</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T40" t="n">
-        <v>184.0535329901232</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U40" t="n">
-        <v>250.7164219195669</v>
+        <v>250.7164219195672</v>
       </c>
       <c r="V40" t="n">
-        <v>216.642227037782</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>251.027582050545</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X40" t="n">
-        <v>190.2142391029912</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y40" t="n">
-        <v>183.0892370660488</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774349</v>
       </c>
       <c r="C41" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D41" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E41" t="n">
-        <v>346.4349537862159</v>
+        <v>346.4349537862161</v>
       </c>
       <c r="F41" t="n">
-        <v>371.3806294556655</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G41" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H41" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I41" t="n">
-        <v>6.081513486880077</v>
+        <v>6.081513486880255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>73.69234550212995</v>
+        <v>73.69234550213012</v>
       </c>
       <c r="T41" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U41" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728563</v>
       </c>
       <c r="V41" t="n">
-        <v>292.256842184089</v>
+        <v>292.2568421840892</v>
       </c>
       <c r="W41" t="n">
-        <v>313.7455524313671</v>
+        <v>313.7455524313673</v>
       </c>
       <c r="X41" t="n">
-        <v>334.2356843924231</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y41" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700079</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247692</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>144.3365638958914</v>
+        <v>144.3365638958916</v>
       </c>
       <c r="C43" t="n">
-        <v>131.7514048125819</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D43" t="n">
-        <v>10.21697608866504</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E43" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G43" t="n">
-        <v>130.5303919729823</v>
+        <v>130.5303919729825</v>
       </c>
       <c r="H43" t="n">
-        <v>109.2595986282749</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>60.85700412379239</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.43673638400145</v>
+        <v>53.43673638400162</v>
       </c>
       <c r="S43" t="n">
-        <v>154.273609045396</v>
+        <v>154.2736090453962</v>
       </c>
       <c r="T43" t="n">
-        <v>184.0535329901233</v>
+        <v>184.0535329901235</v>
       </c>
       <c r="U43" t="n">
-        <v>250.716421919567</v>
+        <v>197.2288504041824</v>
       </c>
       <c r="V43" t="n">
-        <v>216.6422270377821</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W43" t="n">
-        <v>251.0275820505451</v>
+        <v>251.0275820505453</v>
       </c>
       <c r="X43" t="n">
-        <v>190.2142391029913</v>
+        <v>190.2142391029914</v>
       </c>
       <c r="Y43" t="n">
-        <v>183.0892370660489</v>
+        <v>183.0892370660491</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>347.2384253774347</v>
+        <v>347.2384253774348</v>
       </c>
       <c r="C44" t="n">
-        <v>329.7774754849617</v>
+        <v>329.7774754849618</v>
       </c>
       <c r="D44" t="n">
-        <v>319.1876253346371</v>
+        <v>319.1876253346372</v>
       </c>
       <c r="E44" t="n">
-        <v>346.4349537862159</v>
+        <v>346.434953786216</v>
       </c>
       <c r="F44" t="n">
-        <v>371.3806294556656</v>
+        <v>371.3806294556657</v>
       </c>
       <c r="G44" t="n">
-        <v>375.4263093674076</v>
+        <v>375.4263093674077</v>
       </c>
       <c r="H44" t="n">
-        <v>259.1123481012746</v>
+        <v>259.1123481012747</v>
       </c>
       <c r="I44" t="n">
-        <v>6.081513486880127</v>
+        <v>6.081513486880212</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.69234550212998</v>
+        <v>73.6923455021301</v>
       </c>
       <c r="T44" t="n">
-        <v>168.4225538535743</v>
+        <v>168.4225538535744</v>
       </c>
       <c r="U44" t="n">
-        <v>215.4997556728561</v>
+        <v>215.4997556728562</v>
       </c>
       <c r="V44" t="n">
         <v>292.2568421840891</v>
@@ -4040,10 +4040,10 @@
         <v>313.7455524313672</v>
       </c>
       <c r="X44" t="n">
-        <v>334.2356843924232</v>
+        <v>334.2356843924233</v>
       </c>
       <c r="Y44" t="n">
-        <v>350.7425223700077</v>
+        <v>350.7425223700078</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>144.3365638958915</v>
       </c>
       <c r="C46" t="n">
-        <v>131.751404812582</v>
+        <v>131.7514048125821</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F46" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>130.5303919729824</v>
       </c>
       <c r="H46" t="n">
-        <v>109.2595986282749</v>
+        <v>109.259598628275</v>
       </c>
       <c r="I46" t="n">
-        <v>60.85700412379226</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.43673638400151</v>
+        <v>53.43673638400158</v>
       </c>
       <c r="S46" t="n">
         <v>154.2736090453961</v>
@@ -4189,16 +4189,16 @@
         <v>184.0535329901234</v>
       </c>
       <c r="U46" t="n">
-        <v>250.716421919567</v>
+        <v>250.7164219195671</v>
       </c>
       <c r="V46" t="n">
         <v>216.6422270377822</v>
       </c>
       <c r="W46" t="n">
-        <v>201.4004686390555</v>
+        <v>251.0275820505452</v>
       </c>
       <c r="X46" t="n">
-        <v>190.2142391029913</v>
+        <v>87.31115845948732</v>
       </c>
       <c r="Y46" t="n">
         <v>183.089237066049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1658.423066431411</v>
+        <v>616.4812432579051</v>
       </c>
       <c r="C2" t="n">
-        <v>1658.423066431411</v>
+        <v>616.4812432579051</v>
       </c>
       <c r="D2" t="n">
-        <v>1658.423066431411</v>
+        <v>616.4812432579051</v>
       </c>
       <c r="E2" t="n">
-        <v>1272.634813833166</v>
+        <v>616.4812432579051</v>
       </c>
       <c r="F2" t="n">
-        <v>959.2517301244658</v>
+        <v>609.5357425087017</v>
       </c>
       <c r="G2" t="n">
-        <v>541.0395078903824</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="H2" t="n">
-        <v>211.3007166942732</v>
+        <v>211.3007166942733</v>
       </c>
       <c r="I2" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J2" t="n">
-        <v>143.3613405244787</v>
+        <v>143.3613405244782</v>
       </c>
       <c r="K2" t="n">
-        <v>406.6417666293507</v>
+        <v>406.6417666293496</v>
       </c>
       <c r="L2" t="n">
-        <v>785.5410436024647</v>
+        <v>785.5410436024627</v>
       </c>
       <c r="M2" t="n">
-        <v>1223.746040782772</v>
+        <v>1223.746040782769</v>
       </c>
       <c r="N2" t="n">
-        <v>1654.409655400863</v>
+        <v>1654.409655400859</v>
       </c>
       <c r="O2" t="n">
-        <v>2015.885456671747</v>
+        <v>2015.885456671742</v>
       </c>
       <c r="P2" t="n">
-        <v>2286.722307110681</v>
+        <v>2286.722307110675</v>
       </c>
       <c r="Q2" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750813</v>
       </c>
       <c r="R2" t="n">
-        <v>2342.254609045096</v>
+        <v>2342.254609045089</v>
       </c>
       <c r="S2" t="n">
-        <v>2342.254609045096</v>
+        <v>2160.416384320152</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.254609045096</v>
+        <v>1940.694284428202</v>
       </c>
       <c r="U2" t="n">
-        <v>2342.254609045096</v>
+        <v>1686.912625935712</v>
       </c>
       <c r="V2" t="n">
-        <v>2011.191721701525</v>
+        <v>1355.849738592141</v>
       </c>
       <c r="W2" t="n">
-        <v>1658.423066431411</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="X2" t="n">
-        <v>1658.423066431411</v>
+        <v>1003.081083322027</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.423066431411</v>
+        <v>1003.081083322027</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.1863977183546</v>
+        <v>814.3524755586716</v>
       </c>
       <c r="C3" t="n">
         <v>814.3524755586716</v>
@@ -4404,55 +4404,55 @@
         <v>114.8765821596108</v>
       </c>
       <c r="I3" t="n">
-        <v>48.25775485501639</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J3" t="n">
-        <v>111.2074192719586</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K3" t="n">
-        <v>345.4192653503525</v>
+        <v>149.6153884757262</v>
       </c>
       <c r="L3" t="n">
-        <v>525.9465153519725</v>
+        <v>525.9465153519692</v>
       </c>
       <c r="M3" t="n">
-        <v>1017.086411664344</v>
+        <v>1017.08641166434</v>
       </c>
       <c r="N3" t="n">
-        <v>1536.932332987188</v>
+        <v>1536.932332987184</v>
       </c>
       <c r="O3" t="n">
-        <v>1946.074112602213</v>
+        <v>1946.074112602208</v>
       </c>
       <c r="P3" t="n">
-        <v>2257.443393642323</v>
+        <v>2257.443393642317</v>
       </c>
       <c r="Q3" t="n">
-        <v>2412.88774275082</v>
+        <v>2412.887742750813</v>
       </c>
       <c r="R3" t="n">
-        <v>2354.422089841572</v>
+        <v>2354.422089841566</v>
       </c>
       <c r="S3" t="n">
-        <v>2193.780311634277</v>
+        <v>2193.780311634271</v>
       </c>
       <c r="T3" t="n">
-        <v>1994.366029972578</v>
+        <v>1994.366029972572</v>
       </c>
       <c r="U3" t="n">
-        <v>1766.187661648785</v>
+        <v>1766.187661648779</v>
       </c>
       <c r="V3" t="n">
-        <v>1531.035553417043</v>
+        <v>1531.035553417036</v>
       </c>
       <c r="W3" t="n">
-        <v>1276.798196688841</v>
+        <v>1276.798196688835</v>
       </c>
       <c r="X3" t="n">
-        <v>1068.946696483308</v>
+        <v>1068.946696483302</v>
       </c>
       <c r="Y3" t="n">
-        <v>861.1863977183546</v>
+        <v>861.1863977183482</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="C4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="D4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="E4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="F4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="G4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="H4" t="n">
-        <v>1830.104718907986</v>
+        <v>187.9376705916224</v>
       </c>
       <c r="I4" t="n">
-        <v>1830.104718907986</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="J4" t="n">
-        <v>1830.104718907986</v>
+        <v>48.25775485501627</v>
       </c>
       <c r="K4" t="n">
-        <v>1873.71839699758</v>
+        <v>91.87143294461012</v>
       </c>
       <c r="L4" t="n">
-        <v>1985.055323891405</v>
+        <v>203.2083598384343</v>
       </c>
       <c r="M4" t="n">
-        <v>2112.8336258064</v>
+        <v>330.9866617534286</v>
       </c>
       <c r="N4" t="n">
-        <v>2243.008261722257</v>
+        <v>461.1612976692851</v>
       </c>
       <c r="O4" t="n">
-        <v>2347.229311851424</v>
+        <v>565.3823477984523</v>
       </c>
       <c r="P4" t="n">
-        <v>2412.88774275082</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="Q4" t="n">
-        <v>2412.88774275082</v>
+        <v>631.0407786978476</v>
       </c>
       <c r="R4" t="n">
-        <v>2412.88774275082</v>
+        <v>477.8838208831901</v>
       </c>
       <c r="S4" t="n">
-        <v>2196.657398084949</v>
+        <v>477.8838208831901</v>
       </c>
       <c r="T4" t="n">
-        <v>2196.657398084949</v>
+        <v>477.8838208831901</v>
       </c>
       <c r="U4" t="n">
-        <v>2196.657398084949</v>
+        <v>477.8838208831901</v>
       </c>
       <c r="V4" t="n">
-        <v>2058.094269806003</v>
+        <v>477.8838208831901</v>
       </c>
       <c r="W4" t="n">
-        <v>2058.094269806003</v>
+        <v>369.5861354218621</v>
       </c>
       <c r="X4" t="n">
-        <v>1830.104718907986</v>
+        <v>369.5861354218621</v>
       </c>
       <c r="Y4" t="n">
-        <v>1830.104718907986</v>
+        <v>369.5861354218621</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>959.5129866402885</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1719.57858496549</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1346.11282670441</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1346.11282670441</v>
+        <v>1138.210253911481</v>
       </c>
     </row>
     <row r="6">
@@ -4626,16 +4626,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4650,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>396.6060931634762</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="C7" t="n">
-        <v>396.6060931634762</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="D7" t="n">
-        <v>246.4894537511405</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>550.5654064942401</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="W7" t="n">
-        <v>550.5654064942401</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="X7" t="n">
-        <v>550.5654064942401</v>
+        <v>216.7193895227713</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.5654064942401</v>
+        <v>216.7193895227713</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1359.246564992226</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5045,13 +5045,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O11" t="n">
         <v>4075.973927750058</v>
@@ -5066,25 +5066,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331036</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.1008243407807</v>
+        <v>333.9403347179517</v>
       </c>
       <c r="C13" t="n">
-        <v>409.1008243407807</v>
+        <v>165.0041517900448</v>
       </c>
       <c r="D13" t="n">
-        <v>258.984184928445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>258.984184928445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>258.984184928445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5197,52 +5197,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.683666895327</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442034</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482926995</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518527</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104701</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862229</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431755</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557398</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351511</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145506</v>
+        <v>964.3709295897388</v>
       </c>
       <c r="X13" t="n">
-        <v>811.5418683145506</v>
+        <v>736.3813786917216</v>
       </c>
       <c r="Y13" t="n">
-        <v>590.7492891710205</v>
+        <v>515.5887995481914</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5261,13 +5261,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>409.4810578558177</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C16" t="n">
-        <v>409.4810578558177</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>409.4810578558177</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,10 +5434,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1840.198305069396</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1618.431689638922</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1329.328822764566</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V16" t="n">
-        <v>1329.328822764566</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.911652727605</v>
+        <v>931.4530568143257</v>
       </c>
       <c r="X16" t="n">
-        <v>811.9221018295875</v>
+        <v>703.4635059163083</v>
       </c>
       <c r="Y16" t="n">
-        <v>591.1295226860574</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5498,13 +5498,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2730.494725501681</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5543,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,64 +5568,64 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.6313103540817</v>
+        <v>877.1197344942217</v>
       </c>
       <c r="C19" t="n">
-        <v>759.6313103540817</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D19" t="n">
-        <v>759.6313103540817</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E19" t="n">
-        <v>611.7182167716886</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927055</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.38769389225</v>
+        <v>1005.387693892254</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598119</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518528</v>
+        <v>1646.125669518533</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952187</v>
+        <v>1878.733169952192</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104702</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.51300886223</v>
+        <v>1956.343466104706</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431756</v>
+        <v>1734.576850674232</v>
       </c>
       <c r="U19" t="n">
-        <v>1644.746393431756</v>
+        <v>1734.576850674232</v>
       </c>
       <c r="V19" t="n">
-        <v>1390.061905225869</v>
+        <v>1479.892362468345</v>
       </c>
       <c r="W19" t="n">
-        <v>1390.061905225869</v>
+        <v>1479.892362468345</v>
       </c>
       <c r="X19" t="n">
-        <v>1162.072354327852</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y19" t="n">
-        <v>941.2797751843215</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5750,28 +5750,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0900014994927</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1538185715858</v>
+        <v>312.7607075579277</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>162.644068145592</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>162.6440681455919</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>162.6440681455919</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5911,7 +5911,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.70960687741</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1593.942991446937</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1304.84012457258</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1050.155636366693</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>760.7384663297324</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X22" t="n">
-        <v>760.7384663297324</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7384663297324</v>
+        <v>481.6968904858346</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1650.184003770974</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.715908442899</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>2730.494725501681</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6042,43 +6042,43 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,7 +6087,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6096,16 +6096,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>264.4972173763014</v>
+        <v>409.1008243407838</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>409.1008243407838</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6151,7 +6151,7 @@
         <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1949.898952795767</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T25" t="n">
-        <v>1728.132337365293</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U25" t="n">
-        <v>1439.029470490937</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V25" t="n">
-        <v>1184.34498228505</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W25" t="n">
-        <v>894.9278122480887</v>
+        <v>811.5418683145537</v>
       </c>
       <c r="X25" t="n">
-        <v>666.9382613500713</v>
+        <v>811.5418683145537</v>
       </c>
       <c r="Y25" t="n">
-        <v>446.1456822065412</v>
+        <v>590.7492891710235</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6212,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193958</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604875</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573317</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>102.0055477573317</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>416.1091927888629</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.866738172571</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,13 +6494,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6546,22 +6546,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>217.4149401676096</v>
+        <v>781.1514798657284</v>
       </c>
       <c r="C31" t="n">
-        <v>217.4149401676096</v>
+        <v>612.2152969378216</v>
       </c>
       <c r="D31" t="n">
-        <v>217.4149401676095</v>
+        <v>462.0986575254859</v>
       </c>
       <c r="E31" t="n">
-        <v>217.4149401676095</v>
+        <v>314.1855639430927</v>
       </c>
       <c r="F31" t="n">
-        <v>217.4149401676096</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6619,13 +6619,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6637,34 +6637,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1445.473983799872</v>
       </c>
       <c r="V31" t="n">
-        <v>909.27315417834</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413794</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="X31" t="n">
-        <v>619.8559841413794</v>
+        <v>962.7999446959682</v>
       </c>
       <c r="Y31" t="n">
-        <v>399.0634049978493</v>
+        <v>962.7999446959682</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.866738172571</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6783,7 +6783,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>679.6423705955727</v>
+        <v>579.0900014994927</v>
       </c>
       <c r="C34" t="n">
-        <v>510.7061876676659</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D34" t="n">
-        <v>360.5895482553301</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E34" t="n">
-        <v>360.5895482553301</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6859,10 +6859,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
         <v>1005.387693892251</v>
@@ -6874,7 +6874,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q34" t="n">
         <v>1956.343466104703</v>
@@ -6883,25 +6883,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1667.240599230347</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V34" t="n">
-        <v>1412.55611102446</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W34" t="n">
-        <v>1123.138940987499</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X34" t="n">
-        <v>1082.083414569343</v>
+        <v>770.7997573601906</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.2908354258125</v>
+        <v>760.7384663297324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C35" t="n">
-        <v>1779.154403914098</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D35" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E35" t="n">
         <v>1106.808364398085</v>
       </c>
       <c r="F35" t="n">
-        <v>731.6764154529683</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G35" t="n">
         <v>352.4579211424557</v>
       </c>
       <c r="H35" t="n">
-        <v>90.7282765957132</v>
+        <v>90.72827659571344</v>
       </c>
       <c r="I35" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J35" t="n">
-        <v>281.0602564399086</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K35" t="n">
-        <v>614.879630129755</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L35" t="n">
-        <v>1065.913843378164</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M35" t="n">
-        <v>2044.464146207992</v>
+        <v>1890.253581172434</v>
       </c>
       <c r="N35" t="n">
-        <v>3024.216418434638</v>
+        <v>2437.032398231217</v>
       </c>
       <c r="O35" t="n">
-        <v>3527.188889313975</v>
+        <v>3316.997048560671</v>
       </c>
       <c r="P35" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q35" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R35" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S35" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T35" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U35" t="n">
-        <v>3767.029658702263</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V35" t="n">
-        <v>3471.820727203183</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W35" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X35" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y35" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="36">
@@ -7011,10 +7011,10 @@
         <v>103.5926252781348</v>
       </c>
       <c r="I36" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J36" t="n">
-        <v>178.2626031702911</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K36" t="n">
         <v>416.5268021506382</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>582.2589880867721</v>
+        <v>636.2354894847501</v>
       </c>
       <c r="C37" t="n">
-        <v>449.176761003356</v>
+        <v>503.1532624013338</v>
       </c>
       <c r="D37" t="n">
-        <v>449.176761003356</v>
+        <v>503.1532624013338</v>
       </c>
       <c r="E37" t="n">
-        <v>437.8334370515338</v>
+        <v>391.0941246634314</v>
       </c>
       <c r="F37" t="n">
-        <v>326.7974453981143</v>
+        <v>280.0581330100117</v>
       </c>
       <c r="G37" t="n">
-        <v>194.9485646173241</v>
+        <v>194.9485646173244</v>
       </c>
       <c r="H37" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="I37" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J37" t="n">
         <v>164.8484282497936</v>
       </c>
       <c r="K37" t="n">
-        <v>403.9760733218555</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L37" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M37" t="n">
         <v>1134.973841616271</v>
@@ -7108,37 +7108,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O37" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P37" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q37" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R37" t="n">
-        <v>2172.514960923484</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="S37" t="n">
-        <v>2016.683032594801</v>
+        <v>2070.659533992781</v>
       </c>
       <c r="T37" t="n">
-        <v>1830.770373008818</v>
+        <v>1884.746874406798</v>
       </c>
       <c r="U37" t="n">
-        <v>1577.521461978952</v>
+        <v>1631.497963376932</v>
       </c>
       <c r="V37" t="n">
-        <v>1358.690929617556</v>
+        <v>1412.667431015535</v>
       </c>
       <c r="W37" t="n">
-        <v>1105.127715425087</v>
+        <v>1159.104216823065</v>
       </c>
       <c r="X37" t="n">
-        <v>912.9921203715601</v>
+        <v>966.9686217695387</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.0534970725209</v>
+        <v>782.0299984704992</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2112.262965010019</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C38" t="n">
         <v>1779.154403914099</v>
@@ -7157,67 +7157,67 @@
         <v>1456.742661151839</v>
       </c>
       <c r="E38" t="n">
-        <v>1106.808364398086</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F38" t="n">
-        <v>731.6764154529678</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G38" t="n">
-        <v>352.4579211424551</v>
+        <v>352.4579211424556</v>
       </c>
       <c r="H38" t="n">
-        <v>90.72827659571318</v>
+        <v>90.72827659571342</v>
       </c>
       <c r="I38" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J38" t="n">
-        <v>273.4644646386981</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K38" t="n">
-        <v>607.2838383285446</v>
+        <v>607.2838383285448</v>
       </c>
       <c r="L38" t="n">
-        <v>1058.318051576953</v>
+        <v>1058.318051576954</v>
       </c>
       <c r="M38" t="n">
-        <v>1979.404890533739</v>
+        <v>2036.868354406782</v>
       </c>
       <c r="N38" t="n">
-        <v>2959.157162760385</v>
+        <v>3016.620626633429</v>
       </c>
       <c r="O38" t="n">
-        <v>3462.129633639722</v>
+        <v>3519.593097512766</v>
       </c>
       <c r="P38" t="n">
-        <v>3856.9039999969</v>
+        <v>3914.367463869944</v>
       </c>
       <c r="Q38" t="n">
-        <v>4105.190361752582</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R38" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S38" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T38" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U38" t="n">
         <v>3767.029658702264</v>
       </c>
       <c r="V38" t="n">
-        <v>3471.820727203184</v>
+        <v>3471.820727203185</v>
       </c>
       <c r="W38" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X38" t="n">
-        <v>2817.294225360971</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y38" t="n">
-        <v>2463.00884922965</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285977</v>
       </c>
       <c r="C39" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474707</v>
       </c>
       <c r="D39" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862196</v>
       </c>
       <c r="E39" t="n">
-        <v>476.9921777807642</v>
+        <v>476.992177780764</v>
       </c>
       <c r="F39" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076491</v>
       </c>
       <c r="G39" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402675</v>
       </c>
       <c r="H39" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781351</v>
       </c>
       <c r="I39" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J39" t="n">
-        <v>178.26260317029</v>
+        <v>178.2626031702901</v>
       </c>
       <c r="K39" t="n">
-        <v>416.5268021506371</v>
+        <v>416.5268021506373</v>
       </c>
       <c r="L39" t="n">
         <v>783.2249624633024</v>
@@ -7266,13 +7266,13 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.985610658127</v>
+        <v>2114.985610658128</v>
       </c>
       <c r="P39" t="n">
-        <v>2425.48520213423</v>
+        <v>2425.485202134231</v>
       </c>
       <c r="Q39" t="n">
-        <v>2583.12675978083</v>
+        <v>2583.126759780831</v>
       </c>
       <c r="R39" t="n">
         <v>2582.982406373346</v>
@@ -7290,7 +7290,7 @@
         <v>1797.681564447354</v>
       </c>
       <c r="W39" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X39" t="n">
         <v>1335.59270751362</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>582.2589880867722</v>
+        <v>801.0895204481651</v>
       </c>
       <c r="C40" t="n">
-        <v>449.1767610033562</v>
+        <v>668.0072933647489</v>
       </c>
       <c r="D40" t="n">
-        <v>437.8334370515338</v>
+        <v>553.7446097969038</v>
       </c>
       <c r="E40" t="n">
-        <v>437.8334370515338</v>
+        <v>441.6854720590013</v>
       </c>
       <c r="F40" t="n">
-        <v>326.7974453981143</v>
+        <v>330.6494804055816</v>
       </c>
       <c r="G40" t="n">
-        <v>194.9485646173241</v>
+        <v>198.8005996247914</v>
       </c>
       <c r="H40" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I40" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J40" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K40" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L40" t="n">
-        <v>755.6763338935366</v>
+        <v>755.6763338935364</v>
       </c>
       <c r="M40" t="n">
         <v>1134.973841616271</v>
       </c>
       <c r="N40" t="n">
-        <v>1511.522680445321</v>
+        <v>1511.52268044532</v>
       </c>
       <c r="O40" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P40" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q40" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R40" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S40" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T40" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U40" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="V40" t="n">
-        <v>1358.690929617556</v>
+        <v>1577.52146197895</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.127715425086</v>
+        <v>1323.95824778648</v>
       </c>
       <c r="X40" t="n">
-        <v>912.9921203715596</v>
+        <v>1131.822652732954</v>
       </c>
       <c r="Y40" t="n">
-        <v>728.0534970725211</v>
+        <v>946.8840294339142</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2112.262965010018</v>
+        <v>2112.26296501002</v>
       </c>
       <c r="C41" t="n">
-        <v>1779.154403914097</v>
+        <v>1779.154403914099</v>
       </c>
       <c r="D41" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E41" t="n">
-        <v>1106.808364398084</v>
+        <v>1106.808364398085</v>
       </c>
       <c r="F41" t="n">
-        <v>731.6764154529679</v>
+        <v>731.6764154529685</v>
       </c>
       <c r="G41" t="n">
-        <v>352.4579211424552</v>
+        <v>352.4579211424557</v>
       </c>
       <c r="H41" t="n">
-        <v>90.72827659571324</v>
+        <v>90.72827659571345</v>
       </c>
       <c r="I41" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J41" t="n">
-        <v>273.4644646386981</v>
+        <v>273.4644646386982</v>
       </c>
       <c r="K41" t="n">
-        <v>928.1877967739975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L41" t="n">
-        <v>1379.222010022406</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M41" t="n">
-        <v>1912.75391469433</v>
+        <v>1834.272305454688</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.532731753113</v>
+        <v>2814.024577681334</v>
       </c>
       <c r="O41" t="n">
-        <v>3339.497382082568</v>
+        <v>3316.997048560671</v>
       </c>
       <c r="P41" t="n">
-        <v>3921.963255671153</v>
+        <v>3711.771414917849</v>
       </c>
       <c r="Q41" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426837</v>
       </c>
       <c r="R41" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983639</v>
       </c>
       <c r="S41" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355225</v>
       </c>
       <c r="T41" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583938</v>
       </c>
       <c r="U41" t="n">
-        <v>3767.029658702262</v>
+        <v>3767.029658702264</v>
       </c>
       <c r="V41" t="n">
-        <v>3471.820727203182</v>
+        <v>3471.820727203184</v>
       </c>
       <c r="W41" t="n">
-        <v>3154.906027777559</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X41" t="n">
-        <v>2817.29422536097</v>
+        <v>2817.294225360972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2463.008849229649</v>
+        <v>2463.008849229651</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>959.617071728598</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C42" t="n">
-        <v>785.164042447471</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D42" t="n">
-        <v>636.2296327862198</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E42" t="n">
-        <v>476.9921777807642</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F42" t="n">
-        <v>330.4576198076492</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G42" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H42" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I42" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J42" t="n">
         <v>178.26260317029</v>
@@ -7512,25 +7512,25 @@
         <v>2583.12675978083</v>
       </c>
       <c r="R42" t="n">
-        <v>2582.982406373346</v>
+        <v>2582.982406373345</v>
       </c>
       <c r="S42" t="n">
-        <v>2453.544519866826</v>
+        <v>2453.544519866825</v>
       </c>
       <c r="T42" t="n">
         <v>2260.901519544681</v>
       </c>
       <c r="U42" t="n">
-        <v>2032.833672679097</v>
+        <v>2032.833672679096</v>
       </c>
       <c r="V42" t="n">
         <v>1797.681564447354</v>
       </c>
       <c r="W42" t="n">
-        <v>1543.444207719153</v>
+        <v>1543.444207719152</v>
       </c>
       <c r="X42" t="n">
-        <v>1335.59270751362</v>
+        <v>1335.592707513619</v>
       </c>
       <c r="Y42" t="n">
         <v>1127.832408748666</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.2589880867713</v>
+        <v>636.2868381023084</v>
       </c>
       <c r="C43" t="n">
-        <v>449.1767610033552</v>
+        <v>503.204611018892</v>
       </c>
       <c r="D43" t="n">
-        <v>438.8565831360168</v>
+        <v>388.9419274510469</v>
       </c>
       <c r="E43" t="n">
-        <v>326.7974453981144</v>
+        <v>388.9419274510469</v>
       </c>
       <c r="F43" t="n">
-        <v>326.7974453981144</v>
+        <v>277.9059357976272</v>
       </c>
       <c r="G43" t="n">
-        <v>194.9485646173242</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="H43" t="n">
-        <v>84.58533367967276</v>
+        <v>146.0570550168368</v>
       </c>
       <c r="I43" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967279</v>
       </c>
       <c r="J43" t="n">
-        <v>164.8484282497938</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K43" t="n">
-        <v>403.9760733218556</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L43" t="n">
-        <v>755.676333893537</v>
+        <v>755.6763338935364</v>
       </c>
       <c r="M43" t="n">
         <v>1134.973841616271</v>
@@ -7582,37 +7582,37 @@
         <v>1511.522680445321</v>
       </c>
       <c r="O43" t="n">
-        <v>1845.99274148892</v>
+        <v>1845.992741488919</v>
       </c>
       <c r="P43" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q43" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R43" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923482</v>
       </c>
       <c r="S43" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.683032594799</v>
       </c>
       <c r="T43" t="n">
-        <v>1830.770373008818</v>
+        <v>1830.770373008816</v>
       </c>
       <c r="U43" t="n">
-        <v>1577.521461978952</v>
+        <v>1631.54931199449</v>
       </c>
       <c r="V43" t="n">
-        <v>1358.690929617556</v>
+        <v>1412.718779633094</v>
       </c>
       <c r="W43" t="n">
-        <v>1105.127715425086</v>
+        <v>1159.155565440624</v>
       </c>
       <c r="X43" t="n">
-        <v>912.9921203715597</v>
+        <v>967.0199703870969</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.0534970725203</v>
+        <v>782.0813470880574</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1779.154403914098</v>
       </c>
       <c r="D44" t="n">
-        <v>1456.742661151838</v>
+        <v>1456.742661151839</v>
       </c>
       <c r="E44" t="n">
         <v>1106.808364398085</v>
@@ -7637,46 +7637,46 @@
         <v>731.6764154529681</v>
       </c>
       <c r="G44" t="n">
-        <v>352.4579211424553</v>
+        <v>352.4579211424552</v>
       </c>
       <c r="H44" t="n">
-        <v>90.72827659571328</v>
+        <v>90.7282765957134</v>
       </c>
       <c r="I44" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J44" t="n">
         <v>273.4644646386981</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1877967739975</v>
+        <v>607.2838383285446</v>
       </c>
       <c r="L44" t="n">
-        <v>1379.222010022406</v>
+        <v>1058.318051576953</v>
       </c>
       <c r="M44" t="n">
-        <v>2357.772312852235</v>
+        <v>1834.272305454687</v>
       </c>
       <c r="N44" t="n">
-        <v>2904.551129911017</v>
+        <v>2814.024577681334</v>
       </c>
       <c r="O44" t="n">
-        <v>3407.523600790354</v>
+        <v>3316.99704856067</v>
       </c>
       <c r="P44" t="n">
-        <v>3802.297967147531</v>
+        <v>3711.771414917848</v>
       </c>
       <c r="Q44" t="n">
-        <v>4170.249617426835</v>
+        <v>4170.249617426836</v>
       </c>
       <c r="R44" t="n">
-        <v>4229.266683983637</v>
+        <v>4229.266683983638</v>
       </c>
       <c r="S44" t="n">
-        <v>4154.829971355223</v>
+        <v>4154.829971355224</v>
       </c>
       <c r="T44" t="n">
-        <v>3984.706179583936</v>
+        <v>3984.706179583937</v>
       </c>
       <c r="U44" t="n">
         <v>3767.029658702264</v>
@@ -7685,7 +7685,7 @@
         <v>3471.820727203184</v>
       </c>
       <c r="W44" t="n">
-        <v>3154.90602777756</v>
+        <v>3154.906027777561</v>
       </c>
       <c r="X44" t="n">
         <v>2817.294225360971</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>959.6170717285972</v>
+        <v>959.6170717285975</v>
       </c>
       <c r="C45" t="n">
-        <v>785.1640424474703</v>
+        <v>785.1640424474705</v>
       </c>
       <c r="D45" t="n">
-        <v>636.2296327862191</v>
+        <v>636.2296327862192</v>
       </c>
       <c r="E45" t="n">
-        <v>476.9921777807635</v>
+        <v>476.9921777807637</v>
       </c>
       <c r="F45" t="n">
-        <v>330.4576198076486</v>
+        <v>330.4576198076487</v>
       </c>
       <c r="G45" t="n">
-        <v>194.0945196402673</v>
+        <v>194.0945196402668</v>
       </c>
       <c r="H45" t="n">
-        <v>103.5926252781348</v>
+        <v>103.5926252781343</v>
       </c>
       <c r="I45" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J45" t="n">
-        <v>178.2626031702898</v>
+        <v>178.26260317029</v>
       </c>
       <c r="K45" t="n">
-        <v>416.5268021506369</v>
+        <v>416.5268021506371</v>
       </c>
       <c r="L45" t="n">
-        <v>783.2249624633022</v>
+        <v>783.2249624633024</v>
       </c>
       <c r="M45" t="n">
         <v>1230.501287685618</v>
@@ -7740,7 +7740,7 @@
         <v>1704.024331240073</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.985610658128</v>
+        <v>2114.985610658127</v>
       </c>
       <c r="P45" t="n">
         <v>2425.48520213423</v>
@@ -7770,7 +7770,7 @@
         <v>1335.592707513619</v>
       </c>
       <c r="Y45" t="n">
-        <v>1127.832408748665</v>
+        <v>1127.832408748666</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>632.3873854721141</v>
+        <v>686.2014937872785</v>
       </c>
       <c r="C46" t="n">
-        <v>499.305158388698</v>
+        <v>553.1192667038622</v>
       </c>
       <c r="D46" t="n">
-        <v>499.305158388698</v>
+        <v>438.8565831360172</v>
       </c>
       <c r="E46" t="n">
-        <v>499.305158388698</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="F46" t="n">
-        <v>388.2691667352784</v>
+        <v>326.7974453981146</v>
       </c>
       <c r="G46" t="n">
-        <v>256.4202859544881</v>
+        <v>194.9485646173243</v>
       </c>
       <c r="H46" t="n">
-        <v>146.0570550168367</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="I46" t="n">
-        <v>84.58533367967276</v>
+        <v>84.58533367967277</v>
       </c>
       <c r="J46" t="n">
-        <v>164.8484282497937</v>
+        <v>164.8484282497936</v>
       </c>
       <c r="K46" t="n">
-        <v>403.9760733218553</v>
+        <v>403.9760733218552</v>
       </c>
       <c r="L46" t="n">
-        <v>755.6763338935368</v>
+        <v>755.6763338935366</v>
       </c>
       <c r="M46" t="n">
         <v>1134.973841616271</v>
@@ -7822,34 +7822,34 @@
         <v>1845.99274148892</v>
       </c>
       <c r="P46" t="n">
-        <v>2113.740704045765</v>
+        <v>2113.740704045764</v>
       </c>
       <c r="Q46" t="n">
-        <v>2226.491462321465</v>
+        <v>2226.491462321464</v>
       </c>
       <c r="R46" t="n">
-        <v>2172.514960923484</v>
+        <v>2172.514960923483</v>
       </c>
       <c r="S46" t="n">
-        <v>2016.683032594801</v>
+        <v>2016.6830325948</v>
       </c>
       <c r="T46" t="n">
         <v>1830.770373008817</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.521461978952</v>
+        <v>1577.521461978951</v>
       </c>
       <c r="V46" t="n">
-        <v>1358.690929617556</v>
+        <v>1358.690929617555</v>
       </c>
       <c r="W46" t="n">
-        <v>1155.256112810429</v>
+        <v>1105.127715425084</v>
       </c>
       <c r="X46" t="n">
-        <v>963.1205177569024</v>
+        <v>1016.934626072067</v>
       </c>
       <c r="Y46" t="n">
-        <v>778.1818944578631</v>
+        <v>831.9960027730276</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>62.50551572733617</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>130.2690628128983</v>
       </c>
       <c r="L3" t="n">
-        <v>173.0586514907081</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050816</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>251.1867816683983</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>251.1867816683983</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>170.1140909277314</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>132.9990175570132</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>288.047814956104</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.672516970919702</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10592,19 +10592,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>301.4178029530879</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>391.469630590769</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>7.6725169709201</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,25 +11060,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>244.871059803849</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>189.5873810418258</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,16 +11297,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>244.8710598038481</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.8740288117391</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-8.698212484734315e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>79.86678684997851</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>148.991904198099</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23701,16 +23701,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>74.78531590649057</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>110.2739705259944</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>41.55868110605712</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>27.38138722868667</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>99.61360489880273</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>139.4736573664691</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>4.236889283775099</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.3889571555945</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696673</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>140.0538944707212</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>95.00857208220816</v>
       </c>
       <c r="G31" t="n">
-        <v>45.39044159700522</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>185.0646842350623</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>208.6239752319412</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>113.1200567321664</v>
+        <v>113.1200567321666</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70865564821923</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>46.27191926422229</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>60.85700412379217</v>
+        <v>60.85700412379239</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>53.43673638400161</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>101.8901660198622</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>110.9385463605232</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.04348946639999</v>
       </c>
       <c r="I40" t="n">
-        <v>60.85700412379217</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>216.6422270377823</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>102.9030806435014</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>110.9385463605234</v>
       </c>
       <c r="F43" t="n">
-        <v>109.9256317368854</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>109.2595986282751</v>
       </c>
       <c r="I43" t="n">
-        <v>60.85700412379222</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>53.48757151538479</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>113.1200567321665</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>110.9385463605233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>109.9256317368855</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>60.85700412379234</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>49.62711341148965</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>102.9030806435041</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>369468.7964389275</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389275</v>
       </c>
       <c r="D2" t="n">
         <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>357373.608198285</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="F2" t="n">
         <v>357373.6081982848</v>
       </c>
       <c r="G2" t="n">
-        <v>357373.6081982852</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="H2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982847</v>
       </c>
       <c r="I2" t="n">
         <v>357373.608198285</v>
       </c>
       <c r="J2" t="n">
-        <v>357373.6081982849</v>
+        <v>357373.608198285</v>
       </c>
       <c r="K2" t="n">
         <v>357373.608198285</v>
       </c>
       <c r="L2" t="n">
-        <v>357373.6081982851</v>
+        <v>357373.6081982849</v>
       </c>
       <c r="M2" t="n">
-        <v>366512.9907006827</v>
+        <v>366512.9907006826</v>
       </c>
       <c r="N2" t="n">
-        <v>366512.9907006827</v>
+        <v>366512.9907006823</v>
       </c>
       <c r="O2" t="n">
-        <v>366512.9907006827</v>
+        <v>366512.9907006825</v>
       </c>
       <c r="P2" t="n">
         <v>366512.9907006825</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>507203.1428394287</v>
+        <v>507203.142839427</v>
       </c>
       <c r="C3" t="n">
-        <v>78665.2821741785</v>
+        <v>78665.28217418026</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>157829.4001410737</v>
+        <v>157829.4001410735</v>
       </c>
       <c r="K3" t="n">
-        <v>18289.94367022123</v>
+        <v>18289.94367022143</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>123848.7911881751</v>
+        <v>123848.791188175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232017.7717547193</v>
+        <v>232017.7717547198</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289582</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289569</v>
+        <v>28561.8393528958</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="J4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="M4" t="n">
-        <v>55718.30868501872</v>
+        <v>55718.30868501853</v>
       </c>
       <c r="N4" t="n">
-        <v>55718.30868501867</v>
+        <v>55718.30868501849</v>
       </c>
       <c r="O4" t="n">
-        <v>55718.30868501868</v>
+        <v>55718.30868501854</v>
       </c>
       <c r="P4" t="n">
-        <v>55718.30868501863</v>
+        <v>55718.30868501856</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77204.68871133446</v>
+        <v>77204.68871133434</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371364</v>
@@ -26500,13 +26500,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="N5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="O5" t="n">
-        <v>91026.04982123678</v>
+        <v>91026.0498212368</v>
       </c>
       <c r="P5" t="n">
         <v>91026.04982123678</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-446956.806866555</v>
+        <v>-446956.8068665537</v>
       </c>
       <c r="C6" t="n">
-        <v>-1977.979261693952</v>
+        <v>-1977.979261695553</v>
       </c>
       <c r="D6" t="n">
-        <v>76687.30291248459</v>
+        <v>76687.30291248465</v>
       </c>
       <c r="E6" t="n">
-        <v>-494949.1634017311</v>
+        <v>-495016.358891957</v>
       </c>
       <c r="F6" t="n">
-        <v>232428.2505916754</v>
+        <v>232361.0551014496</v>
       </c>
       <c r="G6" t="n">
-        <v>232428.2505916759</v>
+        <v>232361.0551014496</v>
       </c>
       <c r="H6" t="n">
-        <v>232428.2505916757</v>
+        <v>232361.0551014495</v>
       </c>
       <c r="I6" t="n">
-        <v>232428.2505916756</v>
+        <v>232361.0551014498</v>
       </c>
       <c r="J6" t="n">
-        <v>74598.85045060181</v>
+        <v>74531.65496037628</v>
       </c>
       <c r="K6" t="n">
-        <v>214138.3069214544</v>
+        <v>214071.1114312283</v>
       </c>
       <c r="L6" t="n">
-        <v>232428.2505916757</v>
+        <v>232361.0551014497</v>
       </c>
       <c r="M6" t="n">
-        <v>95919.84100625219</v>
+        <v>95903.41986326207</v>
       </c>
       <c r="N6" t="n">
-        <v>219768.6321944273</v>
+        <v>219752.2110514368</v>
       </c>
       <c r="O6" t="n">
-        <v>219768.6321944273</v>
+        <v>219752.2110514369</v>
       </c>
       <c r="P6" t="n">
-        <v>219768.6321944271</v>
+        <v>219752.2110514369</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O2" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="P2" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688994</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877033</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="O4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
       <c r="P4" t="n">
-        <v>1057.316670995909</v>
+        <v>1057.31667099591</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5685789688994</v>
+        <v>316.5685789688981</v>
       </c>
       <c r="C3" t="n">
-        <v>61.17508524818726</v>
+        <v>61.17508524818862</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877033</v>
       </c>
       <c r="C4" t="n">
-        <v>71.0653370668507</v>
+        <v>71.06533706685234</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877035</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668507</v>
+        <v>71.06533706685211</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>383.0293982413538</v>
+        <v>383.0293982413541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>603.2219356877049</v>
+        <v>603.2219356877033</v>
       </c>
       <c r="K4" t="n">
-        <v>71.0653370668507</v>
+        <v>71.06533706685234</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>96.62679287009786</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7774244554584</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.4414032841481</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.0198424776874</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.5248788930304</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2438419075651</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27455,10 +27455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>120.1676007117875</v>
       </c>
       <c r="C3" t="n">
-        <v>126.3429160502296</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>157.1516959462661</v>
       </c>
       <c r="I4" t="n">
-        <v>138.2831165792399</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.99928112255589</v>
+        <v>52.99928112255606</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.36018782739058</v>
+        <v>38.36018782739078</v>
       </c>
       <c r="R4" t="n">
-        <v>151.6253882365109</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.068041219212</v>
       </c>
       <c r="T4" t="n">
         <v>225.5064544755703</v>
@@ -27594,13 +27594,13 @@
         <v>286.2878914634775</v>
       </c>
       <c r="V4" t="n">
-        <v>114.960146327672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>179.3082897298763</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>84.65249967646514</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>189.3167090874159</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2.131628207280301e-13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.4122599844811</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.4432932393437</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>62.27135473948709</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>85.14112624278619</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.406874616804998e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28269,7 +28269,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.816166216689785e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-3.020013679234627e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>3.069544618483633e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F38" t="n">
-        <v>35.49541628604487</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604516</v>
       </c>
       <c r="U38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y38" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="C40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="D40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="E40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="F40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="G40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="H40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="I40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="J40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="K40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="L40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="M40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="N40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="O40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="P40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="R40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="S40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="T40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="U40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="V40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="W40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="X40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
       <c r="Y40" t="n">
-        <v>35.49541628604594</v>
+        <v>35.49541628604573</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="C41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="D41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="E41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="F41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="G41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="H41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="I41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="T41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="U41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="V41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="W41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="X41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="C43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="D43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="E43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="F43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="G43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="H43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="I43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="J43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="K43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="L43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="M43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="N43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="O43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="P43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="R43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="S43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="T43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="U43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="V43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="W43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="X43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.4954162860459</v>
+        <v>35.49541628604572</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="C46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="D46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="E46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="F46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="G46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="H46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="I46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="J46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="K46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="L46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="M46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="N46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="O46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="P46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="R46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="S46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="T46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="U46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="V46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="W46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="X46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.49541628604585</v>
+        <v>35.49541628604577</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.272637503392559</v>
+        <v>1.272637503392554</v>
       </c>
       <c r="H2" t="n">
-        <v>13.03339883161905</v>
+        <v>13.033398831619</v>
       </c>
       <c r="I2" t="n">
-        <v>49.06335734954169</v>
+        <v>49.06335734954149</v>
       </c>
       <c r="J2" t="n">
-        <v>108.0135173035643</v>
+        <v>108.0135173035639</v>
       </c>
       <c r="K2" t="n">
-        <v>161.8842628221714</v>
+        <v>161.8842628221707</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8317428166215</v>
+        <v>200.8317428166206</v>
       </c>
       <c r="M2" t="n">
-        <v>223.4640100175789</v>
+        <v>223.464010017578</v>
       </c>
       <c r="N2" t="n">
-        <v>227.079891324093</v>
+        <v>227.0798913240921</v>
       </c>
       <c r="O2" t="n">
-        <v>214.4251021497332</v>
+        <v>214.4251021497324</v>
       </c>
       <c r="P2" t="n">
-        <v>183.0068637847294</v>
+        <v>183.0068637847287</v>
       </c>
       <c r="Q2" t="n">
-        <v>137.4305331944833</v>
+        <v>137.4305331944828</v>
       </c>
       <c r="R2" t="n">
-        <v>79.94231557248293</v>
+        <v>79.9423155724826</v>
       </c>
       <c r="S2" t="n">
-        <v>29.00022710855798</v>
+        <v>29.00022710855785</v>
       </c>
       <c r="T2" t="n">
-        <v>5.570970671100931</v>
+        <v>5.570970671100908</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1018110002714047</v>
+        <v>0.1018110002714043</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6809210943859345</v>
+        <v>0.6809210943859317</v>
       </c>
       <c r="H3" t="n">
-        <v>6.576264253674684</v>
+        <v>6.576264253674657</v>
       </c>
       <c r="I3" t="n">
-        <v>23.44399381986661</v>
+        <v>23.44399381986651</v>
       </c>
       <c r="J3" t="n">
-        <v>64.33211093933078</v>
+        <v>64.33211093933052</v>
       </c>
       <c r="K3" t="n">
-        <v>109.9538242631884</v>
+        <v>109.9538242631879</v>
       </c>
       <c r="L3" t="n">
-        <v>147.84648586656</v>
+        <v>147.8464858665594</v>
       </c>
       <c r="M3" t="n">
-        <v>172.5298755380501</v>
+        <v>172.5298755380494</v>
       </c>
       <c r="N3" t="n">
-        <v>177.0962279648751</v>
+        <v>177.0962279648744</v>
       </c>
       <c r="O3" t="n">
-        <v>162.0084500313763</v>
+        <v>162.0084500313756</v>
       </c>
       <c r="P3" t="n">
-        <v>130.0260640674334</v>
+        <v>130.0260640674329</v>
       </c>
       <c r="Q3" t="n">
-        <v>86.91898039915895</v>
+        <v>86.91898039915858</v>
       </c>
       <c r="R3" t="n">
-        <v>42.27683777248813</v>
+        <v>42.27683777248795</v>
       </c>
       <c r="S3" t="n">
-        <v>12.64781067861592</v>
+        <v>12.64781067861587</v>
       </c>
       <c r="T3" t="n">
-        <v>2.744589849739796</v>
+        <v>2.744589849739785</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04479744042012729</v>
+        <v>0.0447974404201271</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.57086137191113</v>
+        <v>0.5708613719111276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.075476561173504</v>
+        <v>5.075476561173484</v>
       </c>
       <c r="I4" t="n">
-        <v>17.16735834801835</v>
+        <v>17.16735834801828</v>
       </c>
       <c r="J4" t="n">
-        <v>40.35989899411688</v>
+        <v>40.35989899411672</v>
       </c>
       <c r="K4" t="n">
-        <v>66.32371211840217</v>
+        <v>66.3237121184019</v>
       </c>
       <c r="L4" t="n">
-        <v>84.87151705667837</v>
+        <v>84.87151705667802</v>
       </c>
       <c r="M4" t="n">
-        <v>89.48511487148738</v>
+        <v>89.48511487148701</v>
       </c>
       <c r="N4" t="n">
-        <v>87.35735884890961</v>
+        <v>87.35735884890926</v>
       </c>
       <c r="O4" t="n">
-        <v>80.68866009522047</v>
+        <v>80.68866009522014</v>
       </c>
       <c r="P4" t="n">
-        <v>69.04308810823336</v>
+        <v>69.04308810823308</v>
       </c>
       <c r="Q4" t="n">
-        <v>47.8018554243038</v>
+        <v>47.8018554243036</v>
       </c>
       <c r="R4" t="n">
-        <v>25.66800314065862</v>
+        <v>25.66800314065851</v>
       </c>
       <c r="S4" t="n">
-        <v>9.948556817760325</v>
+        <v>9.948556817760284</v>
       </c>
       <c r="T4" t="n">
-        <v>2.439134952711191</v>
+        <v>2.439134952711181</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0311378930133344</v>
+        <v>0.03113789301333427</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32315,7 +32315,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -32555,7 +32555,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33503,13 +33503,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.7086478970249</v>
@@ -33734,10 +33734,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026448</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353167</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>96.06422794895181</v>
+        <v>96.06422794895137</v>
       </c>
       <c r="K2" t="n">
-        <v>265.9398243483556</v>
+        <v>265.9398243483549</v>
       </c>
       <c r="L2" t="n">
-        <v>382.7265423970847</v>
+        <v>382.7265423970838</v>
       </c>
       <c r="M2" t="n">
-        <v>442.6313102831386</v>
+        <v>442.6313102831377</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0137521394863</v>
+        <v>435.0137521394853</v>
       </c>
       <c r="O2" t="n">
-        <v>365.1270719907919</v>
+        <v>365.127071990791</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5725762009425</v>
+        <v>273.5725762009417</v>
       </c>
       <c r="Q2" t="n">
-        <v>127.4398339799385</v>
+        <v>127.439833979938</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.58551961307292</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>236.577622301408</v>
+        <v>102.3814481017272</v>
       </c>
       <c r="L3" t="n">
-        <v>182.3507575773939</v>
+        <v>380.1324513901444</v>
       </c>
       <c r="M3" t="n">
-        <v>496.1009053660317</v>
+        <v>496.100905366031</v>
       </c>
       <c r="N3" t="n">
-        <v>525.0968902250954</v>
+        <v>525.0968902250946</v>
       </c>
       <c r="O3" t="n">
-        <v>413.2745248636613</v>
+        <v>413.2745248636606</v>
       </c>
       <c r="P3" t="n">
-        <v>314.5144252930403</v>
+        <v>314.5144252930398</v>
       </c>
       <c r="Q3" t="n">
-        <v>157.0144940489865</v>
+        <v>157.0144940489862</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>44.05422029251932</v>
+        <v>44.05422029251905</v>
       </c>
       <c r="L4" t="n">
-        <v>112.4615423169945</v>
+        <v>112.4615423169942</v>
       </c>
       <c r="M4" t="n">
-        <v>129.068991833328</v>
+        <v>129.0689918333276</v>
       </c>
       <c r="N4" t="n">
-        <v>131.4895312281382</v>
+        <v>131.4895312281378</v>
       </c>
       <c r="O4" t="n">
-        <v>105.2737880092601</v>
+        <v>105.2737880092598</v>
       </c>
       <c r="P4" t="n">
-        <v>66.32164737312685</v>
+        <v>66.32164737312657</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730081</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35422,7 +35422,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130632</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35817,7 +35817,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226368</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554005</v>
@@ -35890,22 +35890,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>759.2397825566175</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36045,10 +36045,10 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721702012</v>
       </c>
       <c r="M19" t="n">
-        <v>347.633379393482</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
         <v>344.8569461675401</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36364,22 +36364,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>759.2397825566175</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>625.7042053200636</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>323.7860185257257</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>625.2391015115044</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37151,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525805</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>198.4595179396322</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37312,19 +37312,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>840.3389187833144</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222472</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359781</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609577</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K37" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L37" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M37" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N37" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O37" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P37" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q37" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>930.3907464209956</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>258.4668217746396</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.07383289911213</v>
+        <v>81.07383289911195</v>
       </c>
       <c r="K40" t="n">
-        <v>241.5430758303655</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L40" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562439</v>
       </c>
       <c r="M40" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795296</v>
       </c>
       <c r="N40" t="n">
-        <v>380.352362453586</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O40" t="n">
-        <v>337.8485465086857</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P40" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311562</v>
       </c>
       <c r="Q40" t="n">
-        <v>113.8896548239396</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,25 +37780,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>783.7921756340755</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>588.3493672611975</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.07383289911209</v>
+        <v>81.07383289911192</v>
       </c>
       <c r="K43" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303652</v>
       </c>
       <c r="L43" t="n">
-        <v>355.252788456244</v>
+        <v>355.2527884562438</v>
       </c>
       <c r="M43" t="n">
-        <v>383.1287956795297</v>
+        <v>383.1287956795295</v>
       </c>
       <c r="N43" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O43" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086854</v>
       </c>
       <c r="P43" t="n">
-        <v>270.4524874311563</v>
+        <v>270.4524874311561</v>
       </c>
       <c r="Q43" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38017,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>783.7921756340746</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
         <v>508.053000888219</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.6683336154586</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222472</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.07383289911205</v>
+        <v>81.07383289911196</v>
       </c>
       <c r="K46" t="n">
-        <v>241.5430758303654</v>
+        <v>241.5430758303653</v>
       </c>
       <c r="L46" t="n">
         <v>355.2527884562439</v>
@@ -38184,16 +38184,16 @@
         <v>383.1287956795296</v>
       </c>
       <c r="N46" t="n">
-        <v>380.3523624535859</v>
+        <v>380.3523624535858</v>
       </c>
       <c r="O46" t="n">
-        <v>337.8485465086856</v>
+        <v>337.8485465086855</v>
       </c>
       <c r="P46" t="n">
         <v>270.4524874311562</v>
       </c>
       <c r="Q46" t="n">
-        <v>113.8896548239395</v>
+        <v>113.8896548239394</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
